--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61462.64931736208</v>
+        <v>12218814.98621572</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61462.64931736208</v>
+        <v>12218814.98621572</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62777.97675204661</v>
+        <v>7640352.878790677</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62777.97675204661</v>
+        <v>7640352.878790677</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609904590.481767</v>
+        <v>60471555.79619119</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13584.44519662629</v>
+        <v>1469088.159113031</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25987.80570246627</v>
+        <v>2754092.397776914</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38391.16620830623</v>
+        <v>4039096.6364408</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52665.89037452231</v>
+        <v>5101598.216732443</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65736.10349103477</v>
+        <v>6325948.586747769</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78806.3166075472</v>
+        <v>7550298.956763092</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91876.52972405964</v>
+        <v>8774649.326778412</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104946.7428405721</v>
+        <v>9998999.696793731</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>119584.2034767495</v>
+        <v>10940239.29808323</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>132695.6715106924</v>
+        <v>12116050.36943965</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>145807.1395446353</v>
+        <v>13291861.44079607</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>158918.6075785782</v>
+        <v>14467672.5121525</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>172030.0756125211</v>
+        <v>15643483.58350893</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>188059.4016747246</v>
+        <v>16443755.65843504</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>208016.3022229498</v>
+        <v>16794796.27506834</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>251</v>
@@ -27052,13 +27052,13 @@
         <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>153</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>386</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
